--- a/vendor/pieni/site/views/docs/core/core.xlsx
+++ b/vendor/pieni/site/views/docs/core/core.xlsx
@@ -28,7 +28,11 @@
     <t xml:space="preserve">overview</t>
   </si>
   <si>
-    <t xml:space="preserve">最小限の機能を提供する
+    <t xml:space="preserve">&lt;p&gt;最小限の機能を提供する&lt;/p&gt;
+&lt;p&gt;
+リクエストセグメントを取得、解釈し、コントローラメソッドを呼び出し、結果をレスポンスすることまでを実現します。&lt;br&gt;
+helpers/core.phpをrequireすることで、グローバル領域にクラスメソッドのラッパ関数を定義します。&lt;br&gt;
+&lt;/p&gt;
 &lt;h2&gt;Classes&lt;/h2&gt;
 &lt;ul&gt;
 &lt;li&gt;&lt;a href="../overview/core/Core"&gt;Core&lt;/a&gt;&lt;/li&gt;
@@ -147,15 +151,15 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.375"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="248.346590909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="273.454545454545"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -163,7 +167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
